--- a/xlsform_template_survey.xlsx
+++ b/xlsform_template_survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helpdesk\OneDrive - AITS\Bureau\MASTER IA DATA SCIENCE DIT\RECHERCHES\MS Paiement digital RDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD22AD78-6460-4879-AE9A-C0CB79745BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DBA649-DCDE-4706-93C7-ADF702B8C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C89006E-A6DA-4E76-9E38-62F04CB62B10}"/>
   </bookViews>
@@ -17,12 +17,23 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="221">
   <si>
     <t>type</t>
   </si>
@@ -105,409 +116,574 @@
     <t>note</t>
   </si>
   <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>provinces</t>
+  </si>
+  <si>
+    <t>antennes</t>
+  </si>
+  <si>
+    <t>zones</t>
+  </si>
+  <si>
+    <t>aires</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Prénom</t>
+  </si>
+  <si>
+    <t>Aire de Santé</t>
+  </si>
+  <si>
+    <t>Zone de Santé</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>CRAA</t>
+  </si>
+  <si>
+    <t>CAMP ASSISTANT</t>
+  </si>
+  <si>
+    <t>GAMBELA 1</t>
+  </si>
+  <si>
+    <t>KINSHASA</t>
+  </si>
+  <si>
+    <t>KWILU</t>
+  </si>
+  <si>
+    <t>KONGO CENTRAL</t>
+  </si>
+  <si>
+    <t>LIKASI</t>
+  </si>
+  <si>
+    <t>LUBUMBASHI</t>
+  </si>
+  <si>
+    <t>KINSHASA CENTRE</t>
+  </si>
+  <si>
+    <t>KINSHASA EST</t>
+  </si>
+  <si>
+    <t>KINSHASA OUEST</t>
+  </si>
+  <si>
+    <t>TSHAMILEMBA</t>
+  </si>
+  <si>
+    <t>MONGAFULA I</t>
+  </si>
+  <si>
+    <t>AGETRAF</t>
+  </si>
+  <si>
+    <t>BONDE</t>
+  </si>
+  <si>
+    <t>CADASTRE</t>
+  </si>
+  <si>
+    <t>BATETELA</t>
+  </si>
+  <si>
+    <t>CLINIQUE</t>
+  </si>
+  <si>
+    <t>LIMITE</t>
+  </si>
+  <si>
+    <t>GOMBE</t>
+  </si>
+  <si>
+    <t>MASIALA</t>
+  </si>
+  <si>
+    <t>MATEBA</t>
+  </si>
+  <si>
+    <t>MAYULU</t>
+  </si>
+  <si>
+    <t>Date de début</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>Consentement</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>Ce formulaires est institué par le Ministère de la santé publique pour servir d'outil d'enregistrement des prestataires pour le paiement lors des campagnes de vaccination</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>Si vous êtes d’accord, merci de signer ici :</t>
+  </si>
+  <si>
+    <t>end_group</t>
+  </si>
+  <si>
+    <t>localisation</t>
+  </si>
+  <si>
+    <t>Localisation</t>
+  </si>
+  <si>
+    <t>relevant</t>
+  </si>
+  <si>
+    <t>${signature} != ''</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>identification</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>select_one role</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>Date de naissace</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>date_naissance</t>
+  </si>
+  <si>
+    <t>sexe</t>
+  </si>
+  <si>
+    <t>select_one sex</t>
+  </si>
+  <si>
+    <t>Sexe</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>Masculin</t>
+  </si>
+  <si>
+    <t>Féminin</t>
+  </si>
+  <si>
+    <t>MOSO</t>
+  </si>
+  <si>
+    <t>Président CODESA</t>
+  </si>
+  <si>
+    <t>Pointeur</t>
+  </si>
+  <si>
+    <t>Vaccinateur</t>
+  </si>
+  <si>
+    <t>Coordo moniteur</t>
+  </si>
+  <si>
+    <t>Coordo AS</t>
+  </si>
+  <si>
+    <t>Compteur flacons</t>
+  </si>
+  <si>
+    <t>Moniteur flacons</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>Rôle du prestataire</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Numéro Téléphone</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>regex ( . , '^[0]{1}[89]{1}\d{8}$')</t>
+  </si>
+  <si>
+    <t>. = ${phone}</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>Photo du prestataire</t>
+  </si>
+  <si>
+    <t>select_one id_type</t>
+  </si>
+  <si>
+    <t>not(selected(., 'not_available') and count-selected(.) &gt;=2)</t>
+  </si>
+  <si>
+    <t>Numéro de la carte d'électeur</t>
+  </si>
+  <si>
+    <t>regex ( . , '^\d{11}$')</t>
+  </si>
+  <si>
+    <t>select_one country</t>
+  </si>
+  <si>
+    <t>Pays de délivrance de la carte d'électeur</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Photo de la carte de la carte d'électeur</t>
+  </si>
+  <si>
+    <t>max-pixels=1000</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Numéro du passeport</t>
+  </si>
+  <si>
+    <t>Pays de délivrance du passeport</t>
+  </si>
+  <si>
+    <t>Photo du passeport</t>
+  </si>
+  <si>
+    <t>Numéro du permis de conduire</t>
+  </si>
+  <si>
+    <t>Pays de délivrance du permis de conduire</t>
+  </si>
+  <si>
+    <t>Photo du permis de conduire</t>
+  </si>
+  <si>
+    <t>Numéro de la carte de service</t>
+  </si>
+  <si>
+    <t>Pays de délivrance de la carte de service</t>
+  </si>
+  <si>
+    <t>Photo de la carte de la carte de service</t>
+  </si>
+  <si>
+    <t>Carte d'electeur</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>Passeport</t>
+  </si>
+  <si>
+    <t>Permis de conduire</t>
+  </si>
+  <si>
+    <t>Carte de service</t>
+  </si>
+  <si>
+    <t>Vodacom</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Airtel</t>
+  </si>
+  <si>
+    <t>operateur_mobile</t>
+  </si>
+  <si>
+    <t>select_one opmobile</t>
+  </si>
+  <si>
+    <t>Quel est votre opérateur mobile</t>
+  </si>
+  <si>
+    <t>opmobile</t>
+  </si>
+  <si>
+    <t>Quel type de pièce d'identités</t>
+  </si>
+  <si>
+    <t>type_id</t>
+  </si>
+  <si>
+    <t>num_carte</t>
+  </si>
+  <si>
+    <t>pays_carte</t>
+  </si>
+  <si>
+    <t>photo_carte</t>
+  </si>
+  <si>
+    <t>pays_passport</t>
+  </si>
+  <si>
+    <t>photo_passport</t>
+  </si>
+  <si>
+    <t>num_passport</t>
+  </si>
+  <si>
+    <t>num_permis</t>
+  </si>
+  <si>
+    <t>pays_permis</t>
+  </si>
+  <si>
+    <t>photo_permis</t>
+  </si>
+  <si>
+    <t>num_carteserv</t>
+  </si>
+  <si>
+    <t>pays_carteserv</t>
+  </si>
+  <si>
+    <t>photo_carteserv</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>RDC</t>
+  </si>
+  <si>
+    <t>regex ( . , '^[A-Z]{2}\d{6}$')</t>
+  </si>
+  <si>
+    <t>regex ( . , '^[A-Z]{2}\d{6}[A-Z]{2}$')</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>selected(${type_id}, 'electoral_card')</t>
+  </si>
+  <si>
+    <t>selected(${type_idc}, 'electoral_card')</t>
+  </si>
+  <si>
+    <t>selected(${type_id}, 'passport')</t>
+  </si>
+  <si>
+    <t>selected(${type_id}, 'driving_license')</t>
+  </si>
+  <si>
+    <t>selected(${type_id}, 'service_card')</t>
+  </si>
+  <si>
+    <t>regex ( . , '^\d{6}$')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrement des prestataires </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enregistrement_prestataires </t>
+  </si>
+  <si>
+    <t>${antenneId}</t>
+  </si>
+  <si>
+    <t>phone_conf</t>
+  </si>
+  <si>
+    <t>Confirmer le numéro téléphone</t>
+  </si>
+  <si>
+    <t>info_identification</t>
+  </si>
+  <si>
+    <t>Information d'Identification</t>
+  </si>
+  <si>
+    <t>kinshasa</t>
+  </si>
+  <si>
+    <t>kwilu</t>
+  </si>
+  <si>
+    <t>likasi</t>
+  </si>
+  <si>
+    <t>lubumbashi</t>
+  </si>
+  <si>
+    <t>moso</t>
+  </si>
+  <si>
+    <t>vaccinateur</t>
+  </si>
+  <si>
+    <t>pointeur</t>
+  </si>
+  <si>
+    <t>masculin</t>
+  </si>
+  <si>
+    <t>feminin</t>
+  </si>
+  <si>
+    <t>vodacom</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>airtel</t>
+  </si>
+  <si>
     <t>list_name</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>provinces</t>
-  </si>
-  <si>
-    <t>antennes</t>
-  </si>
-  <si>
-    <t>zones</t>
-  </si>
-  <si>
-    <t>aires</t>
-  </si>
-  <si>
-    <t>form_title</t>
-  </si>
-  <si>
-    <t>form_id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>default_language</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Prénom</t>
-  </si>
-  <si>
-    <t>Aire de Santé</t>
-  </si>
-  <si>
-    <t>Zone de Santé</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>CRAA</t>
-  </si>
-  <si>
-    <t>CAMP ASSISTANT</t>
-  </si>
-  <si>
-    <t>GAMBELA 1</t>
-  </si>
-  <si>
-    <t>ZS_LIKASI</t>
-  </si>
-  <si>
-    <t>ZS_LUBUMBASHI</t>
-  </si>
-  <si>
-    <t>ZS_TSHAMILEMBA</t>
-  </si>
-  <si>
-    <t>HAUT-KATANGA</t>
-  </si>
-  <si>
-    <t>KINSHASA</t>
-  </si>
-  <si>
-    <t>KWILU</t>
-  </si>
-  <si>
-    <t>KONGO CENTRAL</t>
-  </si>
-  <si>
-    <t>LIKASI</t>
-  </si>
-  <si>
-    <t>LUBUMBASHI</t>
-  </si>
-  <si>
-    <t>KINSHASA CENTRE</t>
-  </si>
-  <si>
-    <t>KINSHASA EST</t>
-  </si>
-  <si>
-    <t>KINSHASA OUEST</t>
-  </si>
-  <si>
-    <t>TSHAMILEMBA</t>
-  </si>
-  <si>
-    <t>MONGAFULA I</t>
-  </si>
-  <si>
-    <t>AS_CAMP_ASSISTANT</t>
-  </si>
-  <si>
-    <t>AS_CRAA</t>
+    <t>haut_katanga</t>
   </si>
   <si>
     <t>HAUT_KATANGA</t>
   </si>
   <si>
-    <t>ZS_MONGAFULA I</t>
-  </si>
-  <si>
-    <t>KINSHASA_CENTRE</t>
-  </si>
-  <si>
-    <t>KINSHASA_EST</t>
-  </si>
-  <si>
-    <t>KINSHASA_OUEST</t>
-  </si>
-  <si>
-    <t>KONGO_CENTRAL</t>
-  </si>
-  <si>
-    <t>AS_GAMBELA1</t>
-  </si>
-  <si>
-    <t>AGETRAF</t>
-  </si>
-  <si>
-    <t>BONDE</t>
-  </si>
-  <si>
-    <t>CADASTRE</t>
-  </si>
-  <si>
-    <t>AS_AGETRAF</t>
-  </si>
-  <si>
-    <t>AS_BONDE</t>
-  </si>
-  <si>
-    <t>AS_CADASTRE</t>
-  </si>
-  <si>
-    <t>BATETELA</t>
-  </si>
-  <si>
-    <t>CLINIQUE</t>
-  </si>
-  <si>
-    <t>ZS_LIMITE</t>
-  </si>
-  <si>
-    <t>LIMITE</t>
-  </si>
-  <si>
-    <t>ZS_GOMBE</t>
-  </si>
-  <si>
-    <t>GOMBE</t>
-  </si>
-  <si>
-    <t>AS_BATETELA</t>
-  </si>
-  <si>
-    <t>AS_CLINIQUE</t>
-  </si>
-  <si>
-    <t>MASIALA</t>
-  </si>
-  <si>
-    <t>MATEBA</t>
-  </si>
-  <si>
-    <t>MAYULU</t>
-  </si>
-  <si>
-    <t>AS_MASIALA</t>
-  </si>
-  <si>
-    <t>AS_MATEBA</t>
-  </si>
-  <si>
-    <t>AS_MAYULU</t>
-  </si>
-  <si>
-    <t>Date de début</t>
-  </si>
-  <si>
-    <t>begin_group</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>Consentement</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>Ce formulaires est institué par le Ministère de la santé publique pour servir d'outil d'enregistrement des prestataires pour le paiement lors des campagnes de vaccination</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>Si vous êtes d’accord, merci de signer ici :</t>
-  </si>
-  <si>
-    <t>end_group</t>
-  </si>
-  <si>
-    <t>localisation</t>
-  </si>
-  <si>
-    <t>Localisation</t>
-  </si>
-  <si>
-    <t>relevant</t>
-  </si>
-  <si>
-    <t>${signature} != ''</t>
-  </si>
-  <si>
-    <t>Identification</t>
-  </si>
-  <si>
-    <t>identification</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>select_one role</t>
-  </si>
-  <si>
-    <t>number</t>
-  </si>
-  <si>
-    <t>Date de naissace</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>date_naissance</t>
-  </si>
-  <si>
-    <t>sexe</t>
-  </si>
-  <si>
-    <t>select_one sex</t>
-  </si>
-  <si>
-    <t>Sexe</t>
-  </si>
-  <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Masculin</t>
-  </si>
-  <si>
-    <t>Feminin</t>
-  </si>
-  <si>
-    <t>Féminin</t>
-  </si>
-  <si>
-    <t>MOSO</t>
-  </si>
-  <si>
-    <t>Président CODESA</t>
-  </si>
-  <si>
-    <t>Pointeur</t>
-  </si>
-  <si>
-    <t>Vaccinateur</t>
-  </si>
-  <si>
-    <t>Coordo moniteur</t>
-  </si>
-  <si>
-    <t>Coordo AS</t>
-  </si>
-  <si>
-    <t>Compteur flacons</t>
-  </si>
-  <si>
-    <t>Moniteur flacons</t>
-  </si>
-  <si>
-    <t>Moniteur_flacons</t>
-  </si>
-  <si>
-    <t>Coordo_moniteur</t>
-  </si>
-  <si>
-    <t>Coordo_ AS</t>
-  </si>
-  <si>
-    <t>Compteur_flacons</t>
-  </si>
-  <si>
-    <t>President_CODESA</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>Rôle du prestataire</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>Numéro Téléphone</t>
-  </si>
-  <si>
-    <t>constraint</t>
-  </si>
-  <si>
-    <t>regex ( . , '^[0]{1}[89]{1}\d{8}$')</t>
-  </si>
-  <si>
-    <t>. = ${phone}</t>
-  </si>
-  <si>
-    <t>photo</t>
-  </si>
-  <si>
-    <t>Photo du prestataire</t>
-  </si>
-  <si>
-    <t>select_one id_type</t>
-  </si>
-  <si>
-    <t>not(selected(., 'not_available') and count-selected(.) &gt;=2)</t>
-  </si>
-  <si>
-    <t>Numéro de la carte d'électeur</t>
-  </si>
-  <si>
-    <t>regex ( . , '^\d{11}$')</t>
-  </si>
-  <si>
-    <t>select_one country</t>
-  </si>
-  <si>
-    <t>Pays de délivrance de la carte d'électeur</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>Photo de la carte de la carte d'électeur</t>
-  </si>
-  <si>
-    <t>max-pixels=1000</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Numéro du passeport</t>
-  </si>
-  <si>
-    <t>Pays de délivrance du passeport</t>
-  </si>
-  <si>
-    <t>Photo du passeport</t>
-  </si>
-  <si>
-    <t>Numéro du permis de conduire</t>
-  </si>
-  <si>
-    <t>Pays de délivrance du permis de conduire</t>
-  </si>
-  <si>
-    <t>Photo du permis de conduire</t>
-  </si>
-  <si>
-    <t>Numéro de la carte de service</t>
-  </si>
-  <si>
-    <t>Pays de délivrance de la carte de service</t>
-  </si>
-  <si>
-    <t>Photo de la carte de la carte de service</t>
+    <t>kongo_central</t>
+  </si>
+  <si>
+    <t>kinshasa_centre</t>
+  </si>
+  <si>
+    <t>kinshasa_est</t>
+  </si>
+  <si>
+    <t>kinshasa_ouest</t>
+  </si>
+  <si>
+    <t>zs_likasi</t>
+  </si>
+  <si>
+    <t>zs_lubumbashi</t>
+  </si>
+  <si>
+    <t>zs_tshamilemba</t>
+  </si>
+  <si>
+    <t>zs_limite</t>
+  </si>
+  <si>
+    <t>zs_gombe</t>
+  </si>
+  <si>
+    <t>zs_mongafula1</t>
+  </si>
+  <si>
+    <t>as_camp_assistant</t>
+  </si>
+  <si>
+    <t>as_craa</t>
+  </si>
+  <si>
+    <t>as_gambela1</t>
+  </si>
+  <si>
+    <t>as_agetraf</t>
+  </si>
+  <si>
+    <t>as_bonde</t>
+  </si>
+  <si>
+    <t>as_cadastre</t>
+  </si>
+  <si>
+    <t>as_batetela</t>
+  </si>
+  <si>
+    <t>as_clinique</t>
+  </si>
+  <si>
+    <t>as_masiala</t>
+  </si>
+  <si>
+    <t>as_mateba</t>
+  </si>
+  <si>
+    <t>as_mayulu</t>
+  </si>
+  <si>
+    <t>president_codesa</t>
+  </si>
+  <si>
+    <t>moniteur_flacons</t>
+  </si>
+  <si>
+    <t>coordo_moniteur</t>
+  </si>
+  <si>
+    <t>coordo_ as</t>
+  </si>
+  <si>
+    <t>compteur_flacons</t>
   </si>
   <si>
     <t>id_type</t>
@@ -516,142 +692,10 @@
     <t>electoral_card</t>
   </si>
   <si>
-    <t>Carte d'electeur</t>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>Passeport</t>
-  </si>
-  <si>
     <t>driving_license</t>
   </si>
   <si>
-    <t>Permis de conduire</t>
-  </si>
-  <si>
     <t>service_card</t>
-  </si>
-  <si>
-    <t>Carte de service</t>
-  </si>
-  <si>
-    <t>Vodacom</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Airtel</t>
-  </si>
-  <si>
-    <t>operateur_mobile</t>
-  </si>
-  <si>
-    <t>select_one opmobile</t>
-  </si>
-  <si>
-    <t>Quel est votre opérateur mobile</t>
-  </si>
-  <si>
-    <t>opmobile</t>
-  </si>
-  <si>
-    <t>Quel type de pièce d'identités</t>
-  </si>
-  <si>
-    <t>type_id</t>
-  </si>
-  <si>
-    <t>num_carte</t>
-  </si>
-  <si>
-    <t>pays_carte</t>
-  </si>
-  <si>
-    <t>photo_carte</t>
-  </si>
-  <si>
-    <t>pays_passport</t>
-  </si>
-  <si>
-    <t>photo_passport</t>
-  </si>
-  <si>
-    <t>num_passport</t>
-  </si>
-  <si>
-    <t>num_permis</t>
-  </si>
-  <si>
-    <t>pays_permis</t>
-  </si>
-  <si>
-    <t>photo_permis</t>
-  </si>
-  <si>
-    <t>num_carteserv</t>
-  </si>
-  <si>
-    <t>pays_carteserv</t>
-  </si>
-  <si>
-    <t>photo_carteserv</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>RDC</t>
-  </si>
-  <si>
-    <t>regex ( . , '^[A-Z]{2}\d{6}$')</t>
-  </si>
-  <si>
-    <t>regex ( . , '^[A-Z]{2}\d{6}[A-Z]{2}$')</t>
-  </si>
-  <si>
-    <t>parameters</t>
-  </si>
-  <si>
-    <t>selected(${type_id}, 'electoral_card')</t>
-  </si>
-  <si>
-    <t>selected(${type_idc}, 'electoral_card')</t>
-  </si>
-  <si>
-    <t>selected(${type_id}, 'passport')</t>
-  </si>
-  <si>
-    <t>selected(${type_id}, 'driving_license')</t>
-  </si>
-  <si>
-    <t>selected(${type_id}, 'service_card')</t>
-  </si>
-  <si>
-    <t>regex ( . , '^\d{6}$')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enregistrement des prestataires </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enregistrement_prestataires </t>
-  </si>
-  <si>
-    <t>${antenneId}</t>
-  </si>
-  <si>
-    <t>phone_conf</t>
-  </si>
-  <si>
-    <t>Confirmer le numéro téléphone</t>
-  </si>
-  <si>
-    <t>info_identification</t>
-  </si>
-  <si>
-    <t>Information d'Identification</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1570,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -1535,13 +1579,13 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="I1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="J1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1568,19 +1612,19 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1591,49 +1635,49 @@
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1675,13 +1719,13 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1692,7 +1736,7 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -1703,27 +1747,27 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1731,10 +1775,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
@@ -1759,10 +1803,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -1770,30 +1814,30 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -1801,13 +1845,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C20" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -1815,13 +1859,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -1829,13 +1873,13 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -1846,19 +1890,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C23" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
@@ -1866,55 +1910,55 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="C24" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" t="s">
         <v>109</v>
-      </c>
-      <c r="I24" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="C26" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -1922,68 +1966,68 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="C28" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="I28" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H29" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="Q29" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="C30" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -1991,71 +2035,71 @@
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H32" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="J32" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="Q32" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C33" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H33" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2063,71 +2107,71 @@
         <v>23</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="C34" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="I34" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="C35" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H35" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="J35" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="Q35" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
       <c r="C36" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2135,79 +2179,79 @@
         <v>23</v>
       </c>
       <c r="B37" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="C37" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="H37" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="I37" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C38" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="H38" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="J38" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="Q38" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="H39" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2219,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A6B2-212E-4B1B-9036-550D8D0084B9}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,7 +2277,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2242,551 +2286,560 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>198</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>204</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>205</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>81</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="D26" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="C29" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="C30" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="C31" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="C32" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="C33" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>117</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C39" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="C41" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>217</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="C42" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B43" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="C43" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2810,30 +2863,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/xlsform_template_survey.xlsx
+++ b/xlsform_template_survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helpdesk\OneDrive - AITS\Bureau\MASTER IA DATA SCIENCE DIT\RECHERCHES\MS Paiement digital RDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DBA649-DCDE-4706-93C7-ADF702B8C971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1F4FB-63EA-4B73-8796-0D3A4A2AE78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{2C89006E-A6DA-4E76-9E38-62F04CB62B10}"/>
   </bookViews>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8C8BA1-3870-495E-BE82-94E8BB581ACE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,6 +1554,7 @@
     <col min="6" max="6" width="16.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="53.7109375" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2263,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A6B2-212E-4B1B-9036-550D8D0084B9}">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="83" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
